--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2695.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2695.xlsx
@@ -354,7 +354,7 @@
         <v>2.417309226741619</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.33637905893499</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2695.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2695.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163700420989624</v>
+        <v>0.846373975276947</v>
       </c>
       <c r="B1">
-        <v>2.417309226741619</v>
+        <v>1.407367467880249</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.790290355682373</v>
       </c>
       <c r="D1">
-        <v>2.33637905893499</v>
+        <v>2.688522577285767</v>
       </c>
       <c r="E1">
-        <v>1.215839711046699</v>
+        <v>1.617789387702942</v>
       </c>
     </row>
   </sheetData>
